--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437339.8706939357</v>
+        <v>439044.6267082024</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5669319.084475419</v>
+        <v>5669319.084475417</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>112.9995969463465</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.9331172856527</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>190.3453970742846</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="6">
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>144.6963243757074</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1136,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.0524176386246</v>
       </c>
     </row>
     <row r="10">
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.809496073036188</v>
+        <v>212.285385643442</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="12">
@@ -1452,19 +1454,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>176.8004988171162</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>43.79331538974434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>62.31949669711165</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1862,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.77286532336502</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1929,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,7 +1976,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>159.1408770832419</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>180.1631974422641</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,11 +2080,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>200.3360962888297</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>50.05769526855308</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>41.74589639870268</v>
       </c>
     </row>
     <row r="22">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,10 +2399,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>57.01682479830529</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>101.1212488729151</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2460,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2476,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2555,16 +2557,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>103.5611725900397</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2801,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -2846,10 +2848,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>50.25707871510748</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>121.0246249715339</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2921,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,64 +3031,64 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>159.8338995487975</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>29.78216610882018</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>88.72533787923319</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3682,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>94.611342630705</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3882,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>1.197928092376154</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3904,61 +3906,61 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="D44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>124.0808356869336</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>29.05241763862484</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="U2" t="n">
-        <v>495.259035872464</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="V2" t="n">
-        <v>251.810259228364</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="W2" t="n">
-        <v>251.810259228364</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="X2" t="n">
-        <v>251.810259228364</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748834</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>352.9294114938714</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9294114938714</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9294114938714</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9294114938714</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9294114938714</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569325</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="W3" t="n">
-        <v>777.5613083818946</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="X3" t="n">
-        <v>569.7098081763618</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="Y3" t="n">
-        <v>361.9495094114078</v>
+        <v>521.1447485139395</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>716.7297226537162</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4722,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.5167634983089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="10">
@@ -4951,13 +4953,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>233.710825578336</v>
       </c>
       <c r="C11" t="n">
-        <v>720.6083788665362</v>
+        <v>233.710825578336</v>
       </c>
       <c r="D11" t="n">
-        <v>477.1596022224361</v>
+        <v>233.710825578336</v>
       </c>
       <c r="E11" t="n">
-        <v>233.7108255783361</v>
+        <v>233.710825578336</v>
       </c>
       <c r="F11" t="n">
-        <v>233.7108255783361</v>
+        <v>233.710825578336</v>
       </c>
       <c r="G11" t="n">
-        <v>233.7108255783361</v>
+        <v>233.710825578336</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5042,49 +5044,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>477.159602222436</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>751.6061463797154</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C12" t="n">
-        <v>577.1531170985884</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D12" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5124,46 +5126,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990951</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879775</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768599</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902107</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
       <c r="Y12" t="n">
-        <v>919.8214833997833</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553884</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>718.7806050553884</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112884</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112884</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5294,34 +5296,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994884</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994884</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.5405560409666</v>
+        <v>481.6187813086577</v>
       </c>
       <c r="C15" t="n">
-        <v>726.0875267598396</v>
+        <v>481.6187813086577</v>
       </c>
       <c r="D15" t="n">
-        <v>577.1531170985884</v>
+        <v>481.6187813086577</v>
       </c>
       <c r="E15" t="n">
-        <v>417.9156620931329</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063792</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195203</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O15" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>481.6187813086577</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>481.6187813086577</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.710825578336</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5525,40 +5527,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R17" t="n">
-        <v>923.8825440728938</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S17" t="n">
-        <v>712.7511606524439</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T17" t="n">
-        <v>487.4018176583718</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>477.159602222436</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>477.159602222436</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>528.7219208240474</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C18" t="n">
-        <v>528.7219208240474</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D18" t="n">
-        <v>528.7219208240474</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E18" t="n">
-        <v>369.484465818592</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T18" t="n">
-        <v>528.7219208240474</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="U18" t="n">
-        <v>528.7219208240474</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="V18" t="n">
-        <v>528.7219208240474</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="W18" t="n">
-        <v>528.7219208240474</v>
+        <v>487.2836868729566</v>
       </c>
       <c r="X18" t="n">
-        <v>528.7219208240474</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y18" t="n">
-        <v>528.7219208240474</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5689,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.84447166430675</v>
+        <v>580.2569018213353</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>405.8038725402083</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.84447166430675</v>
+        <v>748.4722388414034</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.87389543173322</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>452.8495312167552</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y24" t="n">
-        <v>245.0892324518013</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="25">
@@ -6124,13 +6126,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>22.57944215788615</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>22.57944215788615</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>22.57944215788615</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>342.668582052591</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N27" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N27" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>758.2803810230778</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>758.2803810230778</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>758.2803810230778</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X27" t="n">
-        <v>550.428880817545</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y27" t="n">
-        <v>342.668582052591</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.48569440222</v>
+        <v>70.04586908506877</v>
       </c>
       <c r="C30" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>492.48569440222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>345.951136429105</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y30" t="n">
-        <v>660.701031422288</v>
+        <v>238.2612061051368</v>
       </c>
     </row>
     <row r="31">
@@ -6646,19 +6648,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>165.8157010833278</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>165.8157010833278</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J34" t="n">
         <v>19.28114311021272</v>
@@ -6895,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C36" t="n">
         <v>817.1412885554689</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>359.1939133246643</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>359.1939133246643</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>199.9564583192088</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>199.9564583192088</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>199.9564583192088</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J40" t="n">
         <v>829.5248650203655</v>
@@ -7372,10 +7374,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7448,13 +7450,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X41" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y41" t="n">
         <v>710.516763498309</v>
-      </c>
-      <c r="X41" t="n">
-        <v>710.516763498309</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>343.4227147053767</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>168.9696854242497</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7497,16 +7499,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7530,10 +7532,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>719.3983504903987</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>511.6380517254448</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7606,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>144.6153205717618</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
         <v>473.4149733950735</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>934.7112791079849</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>706.487660844374</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>471.3355526126313</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W45" t="n">
-        <v>227.8867759685313</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7831,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592331</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8301,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714824</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661622</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P15" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133071</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,7 +9494,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>293.876448795365</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>156.0341136990839</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>9.410399877557921</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22683,13 +22685,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>67.06409450346541</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>405.0665496686752</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22802,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431284</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="6">
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>26.98684672813039</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="9">
@@ -23100,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386798</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>337.6653060427309</v>
+        <v>127.1894164723251</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="12">
@@ -23340,19 +23342,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>23.36422987770538</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.88938038756</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>95.3255837582893</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23750,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,25 +23779,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.0962526177847</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23817,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>41.02385161157966</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23874,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>25.6097877612134</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23908,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23929,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>51.00955661900684</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>122.6508037197626</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>163.9367993786017</v>
       </c>
     </row>
     <row r="22">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>119.2616763733422</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>115.6916741900104</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>46.32381669172365</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24303,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24348,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24443,16 +24445,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,13 +24502,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>78.37935568991773</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>122.3802094909351</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24689,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>306.4964087890903</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24734,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>306.5685030994106</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>122.4514202732083</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>16.31889219167672</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>164.9367954821779</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25005,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25044,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25056,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>91.86108361212212</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25096,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25199,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25327,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25406,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>309.6926360069469</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>23.51010635726327</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25570,7 +25572,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>78.09715635761074</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25770,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>204.5750571111013</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>164.9367954821779</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>198.920084420089</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>23.3642298777052</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>171.1123110561968</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575747</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
@@ -26326,13 +26328,13 @@
         <v>108004.4371453661</v>
       </c>
       <c r="G2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="H2" t="n">
         <v>108004.4371453661</v>
       </c>
-      <c r="H2" t="n">
-        <v>108004.437145366</v>
-      </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26347,7 +26349,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154771</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
         <v>14653.66876376167</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37960.95279092416</v>
+        <v>-37960.95279092417</v>
       </c>
       <c r="C6" t="n">
         <v>42808.47874062354</v>
       </c>
       <c r="D6" t="n">
-        <v>42808.47874062356</v>
+        <v>42808.47874062353</v>
       </c>
       <c r="E6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="F6" t="n">
         <v>76436.07874062355</v>
       </c>
       <c r="G6" t="n">
-        <v>76436.07874062356</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="H6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="I6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="J6" t="n">
-        <v>13376.13614151731</v>
+        <v>13376.13614151732</v>
       </c>
       <c r="K6" t="n">
         <v>76436.07874062353</v>
       </c>
       <c r="L6" t="n">
-        <v>76436.07874062355</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="M6" t="n">
-        <v>76436.07874062352</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="N6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="O6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="P6" t="n">
         <v>76436.0787406235</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34781,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>91.08295377589984</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -35021,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35185,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35258,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>240.0046611659691</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>90.56571241621288</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>46.78797658628807</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P15" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,7 +36205,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
